--- a/biology/Médecine/Zone_orbiculaire_de_l’articulation_coxale/Zone_orbiculaire_de_l’articulation_coxale.xlsx
+++ b/biology/Médecine/Zone_orbiculaire_de_l’articulation_coxale/Zone_orbiculaire_de_l’articulation_coxale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zone_orbiculaire_de_l%E2%80%99articulation_coxale</t>
+          <t>Zone_orbiculaire_de_l’articulation_coxale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone orbiculaire de l'articulation coxale est un ligament de l'articulation coxale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zone_orbiculaire_de_l%E2%80%99articulation_coxale</t>
+          <t>Zone_orbiculaire_de_l’articulation_coxale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La capsule articulaire de l'articulation coxale est constituée de deux ensembles de fibres : des circulaires et des longitudinales.
 Les fibres circulaires forment la zone orbiculaire de l'articulation coxale. Elles forment un anneau autour du col fémoral. Elles sont plus abondantes dans les parties inférieure et arrière de la capsule.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zone_orbiculaire_de_l%E2%80%99articulation_coxale</t>
+          <t>Zone_orbiculaire_de_l’articulation_coxale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone orbiculaire et la capsule articulaire proximale de l'articulation coxale sont mal comprises. Des études récentes semblent confirmer que la partie proximale et médiane de la capsule articulaire, y compris la zone orbiculaire, agit bio-mécaniquement comme un anneau de verrouillage enroulé autour du col fémoral et est une structure clé pour la stabilité de l'articulation coxale[1], [2]. Il resserre la capsule articulaire de la hanche lorsque le muscle ilio-psoas se contracte[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone orbiculaire et la capsule articulaire proximale de l'articulation coxale sont mal comprises. Des études récentes semblent confirmer que la partie proximale et médiane de la capsule articulaire, y compris la zone orbiculaire, agit bio-mécaniquement comme un anneau de verrouillage enroulé autour du col fémoral et est une structure clé pour la stabilité de l'articulation coxale, . Il resserre la capsule articulaire de la hanche lorsque le muscle ilio-psoas se contracte.
 </t>
         </is>
       </c>
